--- a/TestData/case.xlsx
+++ b/TestData/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>moudle</t>
   </si>
@@ -33,7 +33,7 @@
     <t>run</t>
   </si>
   <si>
-    <t>regist</t>
+    <t>merchant_regist</t>
   </si>
   <si>
     <t>register_null</t>
@@ -102,7 +102,7 @@
 }</t>
   </si>
   <si>
-    <t>login</t>
+    <t>merchant_login</t>
   </si>
   <si>
     <t>login_pw_null</t>
@@ -169,6 +169,12 @@
 "tel":"13910000000",
 "yzm":"123456"
 }</t>
+  </si>
+  <si>
+    <t>pay_regist</t>
+  </si>
+  <si>
+    <t>pay_login</t>
   </si>
 </sst>
 </file>
@@ -177,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -191,7 +197,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,24 +247,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,69 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -306,7 +312,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,21 +339,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,37 +349,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +439,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,37 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,85 +493,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,15 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,8 +560,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,11 +571,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +589,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,15 +1148,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
@@ -1410,6 +1416,244 @@
         <v>34</v>
       </c>
       <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="67.5" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="67.5" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="67.5" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="54" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="54" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="54" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="54" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="54" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1">
         <v>1</v>
       </c>
     </row>
